--- a/biology/Botanique/Telipogon/Telipogon.xlsx
+++ b/biology/Botanique/Telipogon/Telipogon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Telipogon est un genre de plantes de la famille des Orchidacées. Il a été décrit en 1816 par le botaniste allemand Karl Sigismund Kunth.
 </t>
@@ -513,9 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Taxinomie et nomenclature
-Karl Sigismund Kunth caractérise ce genre par la présence d'un gynostème poilu. Il forme donc ce genre à partir des mots grecs anciens du grec ancien τέλος, telos (« fin ») et πώγων, pôgôn (« barbe »)[3].
-Synonymes</t>
+          <t>Taxinomie et nomenclature</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karl Sigismund Kunth caractérise ce genre par la présence d'un gynostème poilu. Il forme donc ce genre à partir des mots grecs anciens du grec ancien τέλος, telos (« fin ») et πώγων, pôgôn (« barbe »).
+</t>
         </is>
       </c>
     </row>
@@ -543,9 +560,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (16 avril 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (16 avril 2017) (Attention liste brute contenant possiblement des synonymes) :
 Telipogon acicularis (Dressler) N.H. Williams &amp; Dressler
 Telipogon albertii Rchb. f.
 Telipogon alegriae D.E. Benn. &amp; Christenson
